--- a/_samples/sample_sheet_generated_10.xlsx
+++ b/_samples/sample_sheet_generated_10.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="DD.MM.YYYY"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -352,6 +355,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="32" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -392,313 +404,263 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8707200477</t>
+          <t>6236960184</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Shane, Morgan</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.09.1972</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>14.07.2019</t>
-        </is>
+          <t>Caitlin, Johnson</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>25252</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>43721</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>DX</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6469623382</t>
+          <t>5790576253</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Wesley, Torres</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>27.07.1977</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>22.07.2018</t>
-        </is>
+          <t>Jeremy, Ramirez</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>31377</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>43646</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>MR</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8475812679</t>
+          <t>2789619151</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Stephanie, Ortiz</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>28.05.1997</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>21.05.2020</t>
-        </is>
+          <t>Robert, Trevino</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>3277</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>43475</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>MR</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0191820199</t>
+          <t>8713324144</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Richard, Garcia</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>29.03.2000</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>08.10.2018</t>
-        </is>
+          <t>Jeremy, Scott</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>20092</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>43983</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MR</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>CT</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8063991945</t>
+          <t>1228445523</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Suzanne, Lawson</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>07.03.1969</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>19.03.2019</t>
-        </is>
+          <t>Glen, West</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>23937</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>43632</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>MR</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7834377009</t>
+          <t>6697240962</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Monica, Hurley</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12.07.1909</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>20.01.2019</t>
-        </is>
+          <t>Kimberly, Cain</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>32996</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>43504</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>DX</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5228210435</t>
+          <t>9301510443</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Brian, Reeves</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>01.06.1932</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>23.03.2020</t>
-        </is>
+          <t>Nicole, Stone</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>37620</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>43732</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DX</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>CT</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8589873804</t>
+          <t>9224518889</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Harry, Tanner</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>28.10.1978</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>09.03.2019</t>
-        </is>
+          <t>Brittany, Greer</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>23654</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>43833</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MR</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>DX</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8861364887</t>
+          <t>1506443071</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Carolyn, Le</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>09.10.1992</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>29.06.2019</t>
-        </is>
+          <t>Amber, Lyons</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>3088</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>43670</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>DX</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2961314504</t>
+          <t>9871037453</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Calvin, Garner</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>04.02.2004</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>17.12.2018</t>
-        </is>
+          <t>Kayla, Buck</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>13912</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>43977</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>MR</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
